--- a/growth_binary/binary_growth_metabolites.xlsx
+++ b/growth_binary/binary_growth_metabolites.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baeuerle/Organisation/Masterarbeit/C_striatum_wetlab/growth_binary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8784B2B4-7C20-7548-B4A1-240C3028EF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A164C81-0826-3143-8906-48D7C9A85B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="2580" windowWidth="28040" windowHeight="17360" xr2:uid="{EA9A150F-2AE7-6A42-980C-393C02D847AE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{EA9A150F-2AE7-6A42-980C-393C02D847AE}"/>
   </bookViews>
   <sheets>
     <sheet name="CGXII" sheetId="1" r:id="rId1"/>
+    <sheet name="CGXII test" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>BiGG</t>
   </si>
@@ -105,6 +106,96 @@
   </si>
   <si>
     <t>chemical</t>
+  </si>
+  <si>
+    <t>cobalt</t>
+  </si>
+  <si>
+    <t>metabolite</t>
+  </si>
+  <si>
+    <t>in strain</t>
+  </si>
+  <si>
+    <t>14, 15, 16, 17</t>
+  </si>
+  <si>
+    <t>15, 16</t>
+  </si>
+  <si>
+    <t>15, 16, 17</t>
+  </si>
+  <si>
+    <t>Flasks</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>combination</t>
+  </si>
+  <si>
+    <t>cobalt 1</t>
+  </si>
+  <si>
+    <t>cobalt 2</t>
+  </si>
+  <si>
+    <t>cobalt 3</t>
+  </si>
+  <si>
+    <t>cobalt 1 + L-Cysteine 1 + pantothenic acid  1</t>
+  </si>
+  <si>
+    <t>cobalt 2 + L-Cysteine 2 + pantothenic acid  2</t>
+  </si>
+  <si>
+    <t>cobalt 3 + L-Cysteine 3 + pantothenic acid  3</t>
+  </si>
+  <si>
+    <t>14 - 1</t>
+  </si>
+  <si>
+    <t>14 -2</t>
+  </si>
+  <si>
+    <t>14 - 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 -1 </t>
+  </si>
+  <si>
+    <t>15 - 2</t>
+  </si>
+  <si>
+    <t>15 - 3</t>
+  </si>
+  <si>
+    <t>16 - 1</t>
+  </si>
+  <si>
+    <t>16 - 2</t>
+  </si>
+  <si>
+    <t>16 - 3</t>
+  </si>
+  <si>
+    <t>17 - 1</t>
+  </si>
+  <si>
+    <t>17 - 2</t>
+  </si>
+  <si>
+    <t>17 - 3</t>
+  </si>
+  <si>
+    <t>cobalt 2 +nicotinic acid 2 + pantothenic acid  2</t>
+  </si>
+  <si>
+    <t>cobalt 3 + nicotinic acid 3 + pantothenic acid  3</t>
+  </si>
+  <si>
+    <t>cobalt 1 + nicotinic acid 1 + pantothenic acid  1</t>
   </si>
 </sst>
 </file>
@@ -148,9 +239,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -467,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5ADE09-C496-4842-9981-674DDC70C6E5}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,4 +686,407 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5606AF43-B6C7-D043-8B00-297C630415FD}">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="C2">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D2">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="C4">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D4">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.01</v>
+      </c>
+      <c r="D5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>17</v>
+      </c>
+      <c r="L11">
+        <v>17</v>
+      </c>
+      <c r="M11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/growth_binary/binary_growth_metabolites.xlsx
+++ b/growth_binary/binary_growth_metabolites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baeuerle/Organisation/Masterarbeit/C_striatum_wetlab/growth_binary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A164C81-0826-3143-8906-48D7C9A85B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7312C919-4555-C242-A182-40787C679AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{EA9A150F-2AE7-6A42-980C-393C02D847AE}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{EA9A150F-2AE7-6A42-980C-393C02D847AE}"/>
   </bookViews>
   <sheets>
     <sheet name="CGXII" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>BiGG</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>cobalt 1 + nicotinic acid 1 + pantothenic acid  1</t>
+  </si>
+  <si>
+    <t>OD600 (after 19h)</t>
+  </si>
+  <si>
+    <t>maybe waited too long before logphase</t>
   </si>
 </sst>
 </file>
@@ -690,10 +696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5606AF43-B6C7-D043-8B00-297C630415FD}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,7 +708,7 @@
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -719,7 +725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -736,7 +742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -753,7 +759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -770,7 +776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -787,7 +793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -828,7 +834,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -869,7 +875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -910,15 +916,51 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.109</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.114</v>
+      </c>
+      <c r="F13" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -926,7 +968,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -934,7 +976,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
